--- a/backend/Student.xlsx
+++ b/backend/Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soura\OneDrive\Desktop\nodejs\project\excelsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89dc07379b06d952/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A97F45-6DFE-4F40-9C35-017F74E82DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9780F699-1A50-43DA-B52C-0C940A7B46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFB4A30A-4CE5-44A5-A800-B401CEBFDC3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8A2D56F8-18F5-4CBF-9990-F02E7DD982C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,57 +32,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>jungli</t>
-  </si>
-  <si>
-    <t>sourav</t>
-  </si>
-  <si>
-    <t>rakshas</t>
-  </si>
-  <si>
-    <t>priyanshu</t>
-  </si>
-  <si>
-    <t>mehir</t>
-  </si>
-  <si>
     <t>branch</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>cse</t>
-  </si>
-  <si>
-    <t>abhineet</t>
-  </si>
-  <si>
-    <t>vhg565194712644@gmail.com</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Junglee Sahuwala</t>
+  </si>
+  <si>
+    <t>Vivek Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Mehir Routh</t>
+  </si>
+  <si>
+    <t>Avineet Kumar</t>
+  </si>
+  <si>
+    <t>Priyanshu Singh</t>
+  </si>
+  <si>
+    <t>Rakesh Randwa</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>imvivek94@outlook.com</t>
   </si>
   <si>
     <t>souravsahuwala18296@gmail.com</t>
-  </si>
-  <si>
-    <t>jdgsjdsjdhj</t>
-  </si>
-  <si>
-    <t>dghsgdsdjsdj</t>
-  </si>
-  <si>
-    <t>dgshdjadbajda</t>
-  </si>
-  <si>
-    <t>sgdhsdjshdkwkd</t>
-  </si>
-  <si>
-    <t>email</t>
   </si>
 </sst>
 </file>
@@ -449,101 +437,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55B036E-B977-4564-AE29-A8419A04D38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5677609-ED0B-4FB9-83F4-60BA48682DB8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D0193841-7F07-4A81-9FE6-986A765A7FE4}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{78C479DE-3A1C-4CD6-8F7E-D65410E46092}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{91BED060-62E9-4CA3-ADAB-8159CCA03FDB}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{F627B16F-C6B0-46F2-8B68-41ADA85CB31C}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{FF4034EC-875F-4351-94E8-E6EA59E4CBF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/Student.xlsx
+++ b/backend/Student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89dc07379b06d952/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imviv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9780F699-1A50-43DA-B52C-0C940A7B46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5ABF01-2DBC-4BD5-8A9D-F4C83D313E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8A2D56F8-18F5-4CBF-9990-F02E7DD982C0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>souravsahuwala18296@gmail.com</t>
+  </si>
+  <si>
+    <t>codefreaksourav@gmail.com</t>
+  </si>
+  <si>
+    <t>rakshassingh9@gmail.com</t>
+  </si>
+  <si>
+    <t>vhg565194712644@gmail.com</t>
+  </si>
+  <si>
+    <t>fakebgmi.94@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +481,7 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -491,8 +503,8 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,8 +525,8 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -533,6 +545,9 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{91BED060-62E9-4CA3-ADAB-8159CCA03FDB}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{F627B16F-C6B0-46F2-8B68-41ADA85CB31C}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{FF4034EC-875F-4351-94E8-E6EA59E4CBF5}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{33561209-F7D7-4CB1-9697-6F9538E06B5F}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{60873A18-236C-4FBD-956F-D166F1DB2232}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{10D2C137-B7ED-4F7B-B82D-54BE8EE861BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
